--- a/Python/Homework/Iris.xlsx
+++ b/Python/Homework/Iris.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd5ff3deff00e3fe/文档/Cookie-Can/Python/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_5F15D4B1CC8AABF937717A6AC68017CB792F292C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FF93BC-7C41-4F79-91C1-AB39CB3E50D5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="8">
-  <si>
-    <t>sepal length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sepal width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>petal length</t>
-  </si>
-  <si>
-    <t>petal width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>Species</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,11 +37,27 @@
   <si>
     <t>Virginica</t>
   </si>
+  <si>
+    <t>sepal_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petal_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sepal_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petal_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,46 +423,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -474,10 +476,10 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -491,10 +493,10 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4.7</v>
       </c>
@@ -508,10 +510,10 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -525,10 +527,10 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -542,10 +544,10 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.4</v>
       </c>
@@ -559,10 +561,10 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -576,10 +578,10 @@
         <v>0.3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -593,7 +595,7 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
@@ -602,7 +604,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -616,7 +618,7 @@
         <v>0.2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -624,7 +626,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -638,7 +640,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -646,7 +648,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5.4</v>
       </c>
@@ -660,7 +662,7 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -668,7 +670,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4.8</v>
       </c>
@@ -682,7 +684,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -690,7 +692,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4.8</v>
       </c>
@@ -704,7 +706,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -712,7 +714,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4.3</v>
       </c>
@@ -726,7 +728,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -734,7 +736,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5.8</v>
       </c>
@@ -748,7 +750,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -756,7 +758,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5.7</v>
       </c>
@@ -770,7 +772,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -778,7 +780,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5.4</v>
       </c>
@@ -792,7 +794,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -800,7 +802,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -814,7 +816,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -822,7 +824,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5.7</v>
       </c>
@@ -836,7 +838,7 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -844,7 +846,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -858,7 +860,7 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -866,7 +868,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5.4</v>
       </c>
@@ -880,7 +882,7 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -888,7 +890,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -902,7 +904,7 @@
         <v>0.4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -910,7 +912,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -924,7 +926,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -932,7 +934,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -946,7 +948,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -954,7 +956,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.8</v>
       </c>
@@ -968,7 +970,7 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -976,7 +978,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -990,7 +992,7 @@
         <v>0.2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -998,7 +1000,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>0.4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1020,7 +1022,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5.2</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1042,7 +1044,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5.2</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1064,7 +1066,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4.7</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>0.2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1086,7 +1088,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4.8</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>0.2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1108,7 +1110,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5.4</v>
       </c>
@@ -1122,7 +1124,7 @@
         <v>0.4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1130,7 +1132,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5.2</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1152,7 +1154,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5.5</v>
       </c>
@@ -1166,7 +1168,7 @@
         <v>0.2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1174,7 +1176,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>0.2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1196,7 +1198,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>0.2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1218,7 +1220,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5.5</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1240,7 +1242,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1262,7 +1264,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>0.2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -1284,7 +1286,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>0.2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -1306,7 +1308,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>0.3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -1328,7 +1330,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4.5</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>0.3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -1350,7 +1352,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>0.2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -1372,7 +1374,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>0.6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1394,7 +1396,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>0.4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -1416,7 +1418,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4.8</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>0.3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -1438,7 +1440,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -1452,10 +1454,10 @@
         <v>0.2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -1469,10 +1471,10 @@
         <v>0.2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>5.3</v>
       </c>
@@ -1486,10 +1488,10 @@
         <v>0.2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -1503,10 +1505,10 @@
         <v>0.2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7</v>
       </c>
@@ -1520,10 +1522,10 @@
         <v>1.4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>6.4</v>
       </c>
@@ -1537,10 +1539,10 @@
         <v>1.5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6.9</v>
       </c>
@@ -1554,10 +1556,10 @@
         <v>1.5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>5.5</v>
       </c>
@@ -1571,10 +1573,10 @@
         <v>1.3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>6.5</v>
       </c>
@@ -1588,10 +1590,10 @@
         <v>1.5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>5.7</v>
       </c>
@@ -1605,10 +1607,10 @@
         <v>1.3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>6.3</v>
       </c>
@@ -1622,10 +1624,10 @@
         <v>1.6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -1639,10 +1641,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6.6</v>
       </c>
@@ -1656,10 +1658,10 @@
         <v>1.3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>5.2</v>
       </c>
@@ -1673,10 +1675,10 @@
         <v>1.4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -1690,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5.9</v>
       </c>
@@ -1707,10 +1709,10 @@
         <v>1.5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>6</v>
       </c>
@@ -1724,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>6.1</v>
       </c>
@@ -1741,10 +1743,10 @@
         <v>1.4</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>5.6</v>
       </c>
@@ -1758,10 +1760,10 @@
         <v>1.3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>6.7</v>
       </c>
@@ -1775,10 +1777,10 @@
         <v>1.4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5.6</v>
       </c>
@@ -1792,10 +1794,10 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5.8</v>
       </c>
@@ -1809,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6.2</v>
       </c>
@@ -1826,10 +1828,10 @@
         <v>1.5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>5.6</v>
       </c>
@@ -1843,10 +1845,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>5.9</v>
       </c>
@@ -1860,10 +1862,10 @@
         <v>1.8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>6.1</v>
       </c>
@@ -1877,10 +1879,10 @@
         <v>1.3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6.3</v>
       </c>
@@ -1894,10 +1896,10 @@
         <v>1.5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>6.1</v>
       </c>
@@ -1911,10 +1913,10 @@
         <v>1.2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>6.4</v>
       </c>
@@ -1928,10 +1930,10 @@
         <v>1.3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6.6</v>
       </c>
@@ -1945,10 +1947,10 @@
         <v>1.4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>6.8</v>
       </c>
@@ -1962,10 +1964,10 @@
         <v>1.4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6.7</v>
       </c>
@@ -1979,10 +1981,10 @@
         <v>1.7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>6</v>
       </c>
@@ -1996,10 +1998,10 @@
         <v>1.5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>5.7</v>
       </c>
@@ -2013,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>5.5</v>
       </c>
@@ -2030,10 +2032,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>5.5</v>
       </c>
@@ -2047,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>5.8</v>
       </c>
@@ -2064,10 +2066,10 @@
         <v>1.2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>6</v>
       </c>
@@ -2081,10 +2083,10 @@
         <v>1.6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>5.4</v>
       </c>
@@ -2098,10 +2100,10 @@
         <v>1.5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>6</v>
       </c>
@@ -2115,10 +2117,10 @@
         <v>1.6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>6.7</v>
       </c>
@@ -2132,10 +2134,10 @@
         <v>1.5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>6.3</v>
       </c>
@@ -2149,10 +2151,10 @@
         <v>1.3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>5.6</v>
       </c>
@@ -2166,10 +2168,10 @@
         <v>1.3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>5.5</v>
       </c>
@@ -2183,10 +2185,10 @@
         <v>1.3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>5.5</v>
       </c>
@@ -2200,10 +2202,10 @@
         <v>1.2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>6.1</v>
       </c>
@@ -2217,10 +2219,10 @@
         <v>1.4</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>5.8</v>
       </c>
@@ -2234,10 +2236,10 @@
         <v>1.2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -2251,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>5.6</v>
       </c>
@@ -2268,10 +2270,10 @@
         <v>1.3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>5.7</v>
       </c>
@@ -2285,10 +2287,10 @@
         <v>1.2</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>5.7</v>
       </c>
@@ -2302,10 +2304,10 @@
         <v>1.3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>6.2</v>
       </c>
@@ -2319,10 +2321,10 @@
         <v>1.3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -2336,10 +2338,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>5.7</v>
       </c>
@@ -2353,10 +2355,10 @@
         <v>1.3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>6.3</v>
       </c>
@@ -2370,10 +2372,10 @@
         <v>2.5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>5.8</v>
       </c>
@@ -2387,10 +2389,10 @@
         <v>1.9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>7.1</v>
       </c>
@@ -2404,10 +2406,10 @@
         <v>2.1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>6.3</v>
       </c>
@@ -2421,10 +2423,10 @@
         <v>1.8</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>6.5</v>
       </c>
@@ -2438,10 +2440,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>7.6</v>
       </c>
@@ -2455,10 +2457,10 @@
         <v>2.1</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>4.9000000000000004</v>
       </c>
@@ -2472,10 +2474,10 @@
         <v>1.7</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>7.3</v>
       </c>
@@ -2489,10 +2491,10 @@
         <v>1.8</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6.7</v>
       </c>
@@ -2506,10 +2508,10 @@
         <v>1.8</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>7.2</v>
       </c>
@@ -2523,10 +2525,10 @@
         <v>2.5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>6.5</v>
       </c>
@@ -2540,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>6.4</v>
       </c>
@@ -2557,10 +2559,10 @@
         <v>1.9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>6.8</v>
       </c>
@@ -2574,10 +2576,10 @@
         <v>2.1</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>5.7</v>
       </c>
@@ -2591,10 +2593,10 @@
         <v>2</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>5.8</v>
       </c>
@@ -2608,10 +2610,10 @@
         <v>2.4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>6.4</v>
       </c>
@@ -2625,10 +2627,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>6.5</v>
       </c>
@@ -2642,10 +2644,10 @@
         <v>1.8</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>7.7</v>
       </c>
@@ -2659,10 +2661,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>7.7</v>
       </c>
@@ -2676,10 +2678,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>6</v>
       </c>
@@ -2693,10 +2695,10 @@
         <v>1.5</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>6.9</v>
       </c>
@@ -2710,10 +2712,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>5.6</v>
       </c>
@@ -2727,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>7.7</v>
       </c>
@@ -2744,10 +2746,10 @@
         <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>6.3</v>
       </c>
@@ -2761,10 +2763,10 @@
         <v>1.8</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>6.7</v>
       </c>
@@ -2778,10 +2780,10 @@
         <v>2.1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>7.2</v>
       </c>
@@ -2795,10 +2797,10 @@
         <v>1.8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>6.2</v>
       </c>
@@ -2812,10 +2814,10 @@
         <v>1.8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>6.1</v>
       </c>
@@ -2829,10 +2831,10 @@
         <v>1.8</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>6.4</v>
       </c>
@@ -2846,10 +2848,10 @@
         <v>2.1</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>7.2</v>
       </c>
@@ -2863,10 +2865,10 @@
         <v>1.6</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>7.4</v>
       </c>
@@ -2880,10 +2882,10 @@
         <v>1.9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>7.9</v>
       </c>
@@ -2897,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>6.4</v>
       </c>
@@ -2914,10 +2916,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>6.3</v>
       </c>
@@ -2931,10 +2933,10 @@
         <v>1.5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>6.1</v>
       </c>
@@ -2948,10 +2950,10 @@
         <v>1.4</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>7.7</v>
       </c>
@@ -2965,10 +2967,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>6.3</v>
       </c>
@@ -2982,10 +2984,10 @@
         <v>2.4</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>6.4</v>
       </c>
@@ -2999,10 +3001,10 @@
         <v>1.8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -3016,10 +3018,10 @@
         <v>1.8</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>6.9</v>
       </c>
@@ -3033,10 +3035,10 @@
         <v>2.1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>6.7</v>
       </c>
@@ -3050,10 +3052,10 @@
         <v>2.4</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>6.9</v>
       </c>
@@ -3067,10 +3069,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>5.8</v>
       </c>
@@ -3084,10 +3086,10 @@
         <v>1.9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>6.8</v>
       </c>
@@ -3101,10 +3103,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>6.7</v>
       </c>
@@ -3118,10 +3120,10 @@
         <v>2.5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>6.7</v>
       </c>
@@ -3135,10 +3137,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>6.3</v>
       </c>
@@ -3152,10 +3154,10 @@
         <v>1.9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>6.5</v>
       </c>
@@ -3169,10 +3171,10 @@
         <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>6.2</v>
       </c>
@@ -3186,10 +3188,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>5.9</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>1.8</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3214,12 +3216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3228,12 +3230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
